--- a/biology/Botanique/Réséda_blanc/Réséda_blanc.xlsx
+++ b/biology/Botanique/Réséda_blanc/Réséda_blanc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9s%C3%A9da_blanc</t>
+          <t>Réséda_blanc</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Réséda blanc (Reseda alba) est une plante herbacée de la famille des Résédacées. Elle pousse principalement dans les friches littorales méditerranéennes mais on peut aussi la rencontrer sur les littoraux atlantiques.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9s%C3%A9da_blanc</t>
+          <t>Réséda_blanc</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Plante annuelle ou vivace, haute de 60 à 80 cm
 Feuilles pennatifides, de 5 à 15 lobes.
 Fleurs blanches disposées en racème simple (grappe)
-Les fleurs ont 5 sépales et 5 pétales trilobés[1]
-Période de floraison : avril-septembre[2]</t>
+Les fleurs ont 5 sépales et 5 pétales trilobés
+Période de floraison : avril-septembre</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9s%C3%A9da_blanc</t>
+          <t>Réséda_blanc</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +559,12 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La pollinisation du réséda est entomogame, autogame
-Les graines sont des capsules oblongues, longues de 8 à 15 mm[1]
+Les graines sont des capsules oblongues, longues de 8 à 15 mm
 Leur dissémination est barochore</t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R%C3%A9s%C3%A9da_blanc</t>
+          <t>Réséda_blanc</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Habitat type : pelouses basophiles mésoméditerranéennes, mésoxérophiles.
 Aire de répartition : méditerranéenne</t>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R%C3%A9s%C3%A9da_blanc</t>
+          <t>Réséda_blanc</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,9 +626,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (21 janv. 2018)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (21 janv. 2018) :
 Reseda alba subsp. alba
 Reseda alba subsp. decursiva
 Reseda alba subsp. myriosperma
@@ -626,7 +646,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R%C3%A9s%C3%A9da_blanc</t>
+          <t>Réséda_blanc</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -644,7 +664,9 @@
           <t>Vues de la plante</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Inflorescence
